--- a/src/test/resources/Test-Case-Template.xlsx
+++ b/src/test/resources/Test-Case-Template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\268845\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pharmeasyautomationsuite\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EF337E2-E49D-4905-B81C-73DF9AE99ECD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F50255A8-4C2D-4F3B-8E32-2DF9362523A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -188,11 +188,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -246,7 +253,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -263,6 +270,18 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
         <bgColor rgb="FF92D050"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -330,49 +349,58 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -591,8 +619,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H996"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="87" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="87" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -609,16 +637,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="21">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="16"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="15"/>
     </row>
     <row r="2" spans="1:8" ht="14.5">
       <c r="A2" s="1" t="s">
@@ -647,19 +675,19 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="46">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="19" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="10" t="s">
         <v>30</v>
       </c>
       <c r="F3" s="4" t="s">
@@ -676,7 +704,7 @@
       <c r="A4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="20" t="s">
         <v>15</v>
       </c>
       <c r="C4" s="7" t="s">
@@ -724,10 +752,10 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="110" customHeight="1">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="18" t="s">
         <v>34</v>
       </c>
       <c r="C7" s="7" t="s">
@@ -741,10 +769,10 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="80" customHeight="1">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="16" t="s">
         <v>37</v>
       </c>
       <c r="C8" s="7" t="s">
@@ -758,10 +786,10 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="90" customHeight="1">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="16" t="s">
         <v>41</v>
       </c>
       <c r="C9" s="7" t="s">
@@ -770,7 +798,7 @@
       <c r="D9" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="E9" s="17" t="s">
+      <c r="E9" s="12" t="s">
         <v>44</v>
       </c>
     </row>
@@ -781,22 +809,22 @@
       <c r="B10" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="E10" s="17" t="s">
+      <c r="E10" s="12" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15" customHeight="1">
       <c r="A11" s="5"/>
-      <c r="E11" s="17"/>
+      <c r="E11" s="12"/>
     </row>
     <row r="12" spans="1:8" ht="15" customHeight="1">
-      <c r="E12" s="17"/>
+      <c r="E12" s="12"/>
     </row>
     <row r="17" ht="15.75" customHeight="1"/>
     <row r="18" ht="15.75" customHeight="1"/>
